--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H2">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N2">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q2">
-        <v>4.850023880315444</v>
+        <v>1.064934902691556</v>
       </c>
       <c r="R2">
-        <v>43.650214922839</v>
+        <v>9.584414124224001</v>
       </c>
       <c r="S2">
-        <v>0.03798596133853924</v>
+        <v>0.00903014992782835</v>
       </c>
       <c r="T2">
-        <v>0.03798596133853923</v>
+        <v>0.00903014992782835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H3">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q3">
-        <v>12.48839296422045</v>
+        <v>0.9771962423751113</v>
       </c>
       <c r="R3">
-        <v>112.395536677984</v>
+        <v>8.794766181376001</v>
       </c>
       <c r="S3">
-        <v>0.09781057248908011</v>
+        <v>0.008286167121816615</v>
       </c>
       <c r="T3">
-        <v>0.09781057248908011</v>
+        <v>0.008286167121816616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H4">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q4">
-        <v>18.41501855943244</v>
+        <v>1.440944963143111</v>
       </c>
       <c r="R4">
-        <v>165.735167034892</v>
+        <v>12.968504668288</v>
       </c>
       <c r="S4">
-        <v>0.1442286059427788</v>
+        <v>0.01221853938869363</v>
       </c>
       <c r="T4">
-        <v>0.1442286059427788</v>
+        <v>0.01221853938869363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.201142</v>
       </c>
       <c r="I5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N5">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q5">
-        <v>6.387035862994889</v>
+        <v>17.92269467760845</v>
       </c>
       <c r="R5">
-        <v>57.483322766954</v>
+        <v>161.304252098476</v>
       </c>
       <c r="S5">
-        <v>0.05002402118972819</v>
+        <v>0.1519760688098807</v>
       </c>
       <c r="T5">
-        <v>0.05002402118972817</v>
+        <v>0.1519760688098807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.201142</v>
       </c>
       <c r="I6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q6">
         <v>16.44606618482489</v>
@@ -818,10 +818,10 @@
         <v>148.014595663424</v>
       </c>
       <c r="S6">
-        <v>0.1288075377944705</v>
+        <v>0.1394549497782503</v>
       </c>
       <c r="T6">
-        <v>0.1288075377944705</v>
+        <v>0.1394549497782503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.201142</v>
       </c>
       <c r="I7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>6.029036</v>
       </c>
       <c r="O7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q7">
-        <v>24.25088759545689</v>
+        <v>24.25088759545688</v>
       </c>
       <c r="R7">
         <v>218.257988359112</v>
       </c>
       <c r="S7">
-        <v>0.1899358232781262</v>
+        <v>0.2056361851944257</v>
       </c>
       <c r="T7">
-        <v>0.1899358232781262</v>
+        <v>0.2056361851944257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>34.477322</v>
       </c>
       <c r="I8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N8">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q8">
-        <v>6.082899044290444</v>
+        <v>17.06925476294623</v>
       </c>
       <c r="R8">
-        <v>54.746091398614</v>
+        <v>153.623292866516</v>
       </c>
       <c r="S8">
-        <v>0.0476419856117545</v>
+        <v>0.1447392974689145</v>
       </c>
       <c r="T8">
-        <v>0.04764198561175449</v>
+        <v>0.1447392974689145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>34.477322</v>
       </c>
       <c r="I9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q9">
         <v>15.66294012182045</v>
@@ -1004,10 +1004,10 @@
         <v>140.966461096384</v>
       </c>
       <c r="S9">
-        <v>0.1226740017363852</v>
+        <v>0.132814407015076</v>
       </c>
       <c r="T9">
-        <v>0.1226740017363852</v>
+        <v>0.132814407015076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>34.477322</v>
       </c>
       <c r="I10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.029036</v>
       </c>
       <c r="O10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q10">
         <v>23.09611283573244</v>
@@ -1066,10 +1066,10 @@
         <v>207.865015521592</v>
       </c>
       <c r="S10">
-        <v>0.1808914906191372</v>
+        <v>0.1958442352951144</v>
       </c>
       <c r="T10">
-        <v>0.1808914906191372</v>
+        <v>0.1958442352951144</v>
       </c>
     </row>
   </sheetData>
